--- a/Code/Nghiệp vụ phòng khách sạn.xlsx
+++ b/Code/Nghiệp vụ phòng khách sạn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Năm 3\Công nghệ phần mềm\Cuối kỳ 2.0\QuanLyKhachSan\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FA5BF-0734-482F-9E61-E3503AE3A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5990B3C5-160C-40F8-BD0D-EB7205BB6D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" activeTab="2" xr2:uid="{11C6A84B-4A1B-4508-91BB-15BB6FCD4897}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" activeTab="3" xr2:uid="{11C6A84B-4A1B-4508-91BB-15BB6FCD4897}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm loại phòng" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Mô tả</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Phòng trang bị đầy đủ tiện nghi, phục vụ, dọn dẹp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiệu lực </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khả dụng </t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -857,7 +863,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -976,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A978A6-0402-410D-8187-23C86F2F4CB5}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1315,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA5F89D-5646-43D6-9B0F-FE3D6A4519D5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1328,7 +1334,7 @@
     <col min="4" max="4" width="17.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -1341,8 +1347,11 @@
       <c r="D1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
@@ -1355,8 +1364,11 @@
       <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E2" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -1369,8 +1381,11 @@
       <c r="D3" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
@@ -1383,8 +1398,11 @@
       <c r="D4" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
@@ -1397,8 +1415,11 @@
       <c r="D5" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
@@ -1411,8 +1432,11 @@
       <c r="D6" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E6" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>98</v>
       </c>
@@ -1425,8 +1449,11 @@
       <c r="D7" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>101</v>
       </c>
@@ -1439,8 +1466,11 @@
       <c r="D8" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E8" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>102</v>
       </c>
@@ -1453,8 +1483,11 @@
       <c r="D9" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>104</v>
       </c>
@@ -1467,8 +1500,100 @@
       <c r="D10" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.5">
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E38" xr:uid="{D5525B27-03EB-4FD2-B1C7-45ACBA2ABC92}">
+      <formula1>"Khả dụng, Không khả dụng"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1478,7 +1603,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
